--- a/Data/EC/NIT-9003019247.xlsx
+++ b/Data/EC/NIT-9003019247.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D093A1D-3E77-49FD-B35C-3B467E25C091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8A1621A-D316-4328-879E-17D864CD2668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4516BFA7-028A-43D2-835D-8D2C646F09E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{60A8F488-5233-4419-9C0F-A8267F332FD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="82">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,16 +65,169 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73572332</t>
+  </si>
+  <si>
+    <t>WILSON DAVID UBARNES GUERRERO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>7938226</t>
+  </si>
+  <si>
+    <t>JOSE AUGUSTO CASTRO TORRES</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>73113160</t>
+  </si>
+  <si>
+    <t>ORLANDO SANTIAGO PESTAÑA</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
     <t>73211929</t>
   </si>
   <si>
     <t>DAMASO ZABALETA MERCADO</t>
   </si>
   <si>
+    <t>1804</t>
+  </si>
+  <si>
     <t>1803</t>
   </si>
   <si>
-    <t>1804</t>
+    <t>78712919</t>
+  </si>
+  <si>
+    <t>MARLON EDUARDO PALACIO GUIOTH</t>
+  </si>
+  <si>
+    <t>92520479</t>
+  </si>
+  <si>
+    <t>HECTOR MANUEL URRUTIA GUARDIA</t>
+  </si>
+  <si>
+    <t>32906728</t>
+  </si>
+  <si>
+    <t>YESID VIVIANA ORDOSGOITIA MACHADO</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>1050959014</t>
+  </si>
+  <si>
+    <t>RIGOBERTO BELEÑO HUETO</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>1002197206</t>
+  </si>
+  <si>
+    <t>ANGIE PAOLA HERNANDEZ AVENDANO</t>
   </si>
   <si>
     <t>1049534726</t>
@@ -83,127 +236,19 @@
     <t>LUIS EDUARDO RAMOS SILVA</t>
   </si>
   <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
     <t>1909</t>
   </si>
   <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>7938226</t>
-  </si>
-  <si>
-    <t>JOSE AUGUSTO CASTRO TORRES</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>73572332</t>
-  </si>
-  <si>
-    <t>WILSON DAVID UBARNES GUERRERO</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>78712919</t>
-  </si>
-  <si>
-    <t>MARLON EDUARDO PALACIO GUIOTH</t>
-  </si>
-  <si>
     <t>1063289011</t>
   </si>
   <si>
     <t>CONTRERAS DEIVY BERRIO</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>92520479</t>
-  </si>
-  <si>
-    <t>HECTOR MANUEL URRUTIA GUARDIA</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -617,7 +662,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E5C4C5D-2BDC-26A2-F088-5CA8769AFD09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{522FE912-DD51-F452-26D3-82E727F9EE8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,8 +1013,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1281C4B1-C4A8-4F50-8D57-564D3F1AE41E}">
-  <dimension ref="B2:J107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326DF0F4-9AFB-453B-B95B-7062EE0C3BC2}">
+  <dimension ref="B2:J122"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -980,7 +1025,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -993,7 +1038,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1038,7 +1083,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1070,12 +1115,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3890096</v>
+        <v>4403820</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1086,17 +1131,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F13" s="5">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1123,13 +1168,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1146,10 +1191,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1169,10 +1214,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1183,19 +1228,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1206,19 +1251,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F19" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1229,19 +1274,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1252,19 +1297,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1275,19 +1320,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1298,19 +1343,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F23" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1321,13 +1366,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
@@ -1344,13 +1389,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
@@ -1367,13 +1412,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1390,13 +1435,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1413,13 +1458,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1436,13 +1481,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1459,13 +1504,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
@@ -1482,13 +1527,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1505,13 +1550,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1528,13 +1573,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1551,13 +1596,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1574,13 +1619,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1597,13 +1642,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1620,13 +1665,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1643,10 +1688,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>33</v>
@@ -1666,10 +1711,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>34</v>
@@ -1689,13 +1734,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1712,13 +1757,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1735,19 +1780,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G42" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1758,19 +1803,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G43" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1781,19 +1826,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G44" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1804,19 +1849,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F45" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G45" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1827,19 +1872,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F46" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G46" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1850,19 +1895,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F47" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1873,19 +1918,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F48" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1896,13 +1941,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
@@ -1919,13 +1964,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
@@ -1942,13 +1987,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
@@ -1965,13 +2010,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F52" s="18">
         <v>46400</v>
@@ -1988,13 +2033,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
@@ -2011,13 +2056,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
@@ -2034,13 +2079,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
@@ -2057,13 +2102,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F56" s="18">
         <v>46400</v>
@@ -2080,13 +2125,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F57" s="18">
         <v>46400</v>
@@ -2103,13 +2148,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F58" s="18">
         <v>46400</v>
@@ -2126,13 +2171,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F59" s="18">
         <v>46400</v>
@@ -2149,13 +2194,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F60" s="18">
         <v>46400</v>
@@ -2172,13 +2217,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F61" s="18">
         <v>46400</v>
@@ -2195,13 +2240,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F62" s="18">
         <v>46400</v>
@@ -2218,13 +2263,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F63" s="18">
         <v>46400</v>
@@ -2241,13 +2286,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="F64" s="18">
         <v>46400</v>
@@ -2264,13 +2309,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F65" s="18">
         <v>46400</v>
@@ -2287,13 +2332,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F66" s="18">
         <v>46400</v>
@@ -2310,13 +2355,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F67" s="18">
         <v>46400</v>
@@ -2333,13 +2378,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F68" s="18">
         <v>46400</v>
@@ -2356,13 +2401,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F69" s="18">
         <v>46400</v>
@@ -2379,13 +2424,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F70" s="18">
         <v>46400</v>
@@ -2402,13 +2447,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F71" s="18">
         <v>46400</v>
@@ -2425,13 +2470,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F72" s="18">
         <v>46400</v>
@@ -2448,13 +2493,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F73" s="18">
         <v>46400</v>
@@ -2471,13 +2516,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F74" s="18">
         <v>46400</v>
@@ -2494,13 +2539,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D75" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="F75" s="18">
         <v>46400</v>
@@ -2517,13 +2562,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F76" s="18">
         <v>46400</v>
@@ -2540,13 +2585,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F77" s="18">
         <v>46400</v>
@@ -2563,19 +2608,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F78" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G78" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2586,19 +2631,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F79" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G79" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2609,19 +2654,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F80" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G80" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2632,19 +2677,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F81" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G81" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2655,19 +2700,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F82" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G82" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2678,19 +2723,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F83" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G83" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2701,19 +2746,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F84" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G84" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2724,19 +2769,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F85" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G85" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2747,19 +2792,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F86" s="18">
-        <v>46400</v>
+        <v>1898</v>
       </c>
       <c r="G86" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2770,19 +2815,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F87" s="18">
-        <v>46400</v>
+        <v>1898</v>
       </c>
       <c r="G87" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2793,19 +2838,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F88" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G88" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2816,19 +2861,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F89" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G89" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2839,19 +2884,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F90" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G90" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2862,19 +2907,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F91" s="18">
         <v>46400</v>
       </c>
       <c r="G91" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2885,19 +2930,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F92" s="18">
         <v>46400</v>
       </c>
       <c r="G92" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2908,19 +2953,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F93" s="18">
         <v>46400</v>
       </c>
       <c r="G93" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2931,19 +2976,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F94" s="18">
         <v>46400</v>
       </c>
       <c r="G94" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2954,19 +2999,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F95" s="18">
         <v>46400</v>
       </c>
       <c r="G95" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -2977,19 +3022,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F96" s="18">
         <v>46400</v>
       </c>
       <c r="G96" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3000,19 +3045,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F97" s="18">
         <v>46400</v>
       </c>
       <c r="G97" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3023,19 +3068,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F98" s="18">
         <v>46400</v>
       </c>
       <c r="G98" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3046,19 +3091,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F99" s="18">
         <v>46400</v>
       </c>
       <c r="G99" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3069,75 +3114,420 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F100" s="18">
         <v>46400</v>
       </c>
       <c r="G100" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="22" t="s">
+      <c r="B101" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G101" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G102" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G103" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="20"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B104" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G104" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G105" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="20"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E106" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D101" s="23" t="s">
+      <c r="F106" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G106" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="20"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E101" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F101" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G101" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="26"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C106" s="32"/>
-      <c r="H106" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C107" s="32"/>
-      <c r="H107" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
+      <c r="F107" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G107" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G108" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G109" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G110" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F111" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G111" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="20"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F112" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G112" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="20"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B113" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G113" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="20"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F114" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G114" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="20"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B115" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F115" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G115" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="20"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D116" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G116" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="26"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B121" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C121" s="32"/>
+      <c r="H121" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C122" s="32"/>
+      <c r="H122" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="H121:J121"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003019247.xlsx
+++ b/Data/EC/NIT-9003019247.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8A1621A-D316-4328-879E-17D864CD2668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E5A78B2-F1C3-4807-AB8F-AB4E8B525EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{60A8F488-5233-4419-9C0F-A8267F332FD2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DCBAA1DD-C53E-4097-B75B-177DAD116E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="70">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,190 +65,154 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73211929</t>
+  </si>
+  <si>
+    <t>DAMASO ZABALETA MERCADO</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1049534726</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO RAMOS SILVA</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>7938226</t>
+  </si>
+  <si>
+    <t>JOSE AUGUSTO CASTRO TORRES</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
     <t>73572332</t>
   </si>
   <si>
     <t>WILSON DAVID UBARNES GUERRERO</t>
   </si>
   <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>78712919</t>
+  </si>
+  <si>
+    <t>MARLON EDUARDO PALACIO GUIOTH</t>
+  </si>
+  <si>
+    <t>1063289011</t>
+  </si>
+  <si>
+    <t>CONTRERAS DEIVY BERRIO</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>92520479</t>
+  </si>
+  <si>
+    <t>HECTOR MANUEL URRUTIA GUARDIA</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>7938226</t>
-  </si>
-  <si>
-    <t>JOSE AUGUSTO CASTRO TORRES</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>73113160</t>
-  </si>
-  <si>
-    <t>ORLANDO SANTIAGO PESTAÑA</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>73211929</t>
-  </si>
-  <si>
-    <t>DAMASO ZABALETA MERCADO</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>78712919</t>
-  </si>
-  <si>
-    <t>MARLON EDUARDO PALACIO GUIOTH</t>
-  </si>
-  <si>
-    <t>92520479</t>
-  </si>
-  <si>
-    <t>HECTOR MANUEL URRUTIA GUARDIA</t>
-  </si>
-  <si>
-    <t>32906728</t>
-  </si>
-  <si>
-    <t>YESID VIVIANA ORDOSGOITIA MACHADO</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>1050959014</t>
-  </si>
-  <si>
-    <t>RIGOBERTO BELEÑO HUETO</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>1002197206</t>
-  </si>
-  <si>
-    <t>ANGIE PAOLA HERNANDEZ AVENDANO</t>
-  </si>
-  <si>
-    <t>1049534726</t>
-  </si>
-  <si>
-    <t>LUIS EDUARDO RAMOS SILVA</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1063289011</t>
-  </si>
-  <si>
-    <t>CONTRERAS DEIVY BERRIO</t>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>DEIVY BERRIO CONTRERAS</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -347,7 +311,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -360,9 +326,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -562,23 +526,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -606,10 +570,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,7 +626,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{522FE912-DD51-F452-26D3-82E727F9EE8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD79E08D-E23D-C30F-BEFA-F24B743CF7D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1013,8 +977,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326DF0F4-9AFB-453B-B95B-7062EE0C3BC2}">
-  <dimension ref="B2:J122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EFE621-483A-442D-8948-44039F23A395}">
+  <dimension ref="B2:J113"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1025,7 +989,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1038,7 +1002,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1083,7 +1047,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1115,12 +1079,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4403820</v>
+        <v>4168496</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1131,17 +1095,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F13" s="5">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1168,13 +1132,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1191,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1214,10 +1178,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1228,19 +1192,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1251,19 +1215,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1274,19 +1238,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>33125</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1297,19 +1261,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1320,19 +1284,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1343,19 +1307,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1366,13 +1330,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
@@ -1389,13 +1353,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
@@ -1412,13 +1376,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1435,13 +1399,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1458,13 +1422,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1481,13 +1445,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1504,13 +1468,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
@@ -1527,13 +1491,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1550,13 +1514,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1573,13 +1537,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1596,13 +1560,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1619,13 +1583,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1642,13 +1606,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1665,13 +1629,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1688,10 +1652,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>33</v>
@@ -1711,10 +1675,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>34</v>
@@ -1734,13 +1698,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1757,13 +1721,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1780,19 +1744,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F42" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G42" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1803,19 +1767,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="F43" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G43" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1826,19 +1790,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F44" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G44" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1849,19 +1813,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F45" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G45" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1872,19 +1836,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F46" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G46" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1895,19 +1859,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G47" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1918,19 +1882,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G48" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1941,13 +1905,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
@@ -1964,13 +1928,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
@@ -1987,13 +1951,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
@@ -2010,13 +1974,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F52" s="18">
         <v>46400</v>
@@ -2033,13 +1997,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
@@ -2056,13 +2020,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
@@ -2079,13 +2043,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
@@ -2102,13 +2066,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F56" s="18">
         <v>46400</v>
@@ -2125,13 +2089,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F57" s="18">
         <v>46400</v>
@@ -2148,13 +2112,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F58" s="18">
         <v>46400</v>
@@ -2171,13 +2135,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F59" s="18">
         <v>46400</v>
@@ -2194,13 +2158,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F60" s="18">
         <v>46400</v>
@@ -2217,13 +2181,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F61" s="18">
         <v>46400</v>
@@ -2240,13 +2204,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F62" s="18">
         <v>46400</v>
@@ -2263,13 +2227,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F63" s="18">
         <v>46400</v>
@@ -2286,13 +2250,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F64" s="18">
         <v>46400</v>
@@ -2309,13 +2273,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F65" s="18">
         <v>46400</v>
@@ -2332,13 +2296,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F66" s="18">
         <v>46400</v>
@@ -2355,13 +2319,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F67" s="18">
         <v>46400</v>
@@ -2378,13 +2342,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F68" s="18">
         <v>46400</v>
@@ -2401,13 +2365,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F69" s="18">
         <v>46400</v>
@@ -2424,13 +2388,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F70" s="18">
         <v>46400</v>
@@ -2447,13 +2411,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F71" s="18">
         <v>46400</v>
@@ -2470,13 +2434,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F72" s="18">
         <v>46400</v>
@@ -2493,13 +2457,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F73" s="18">
         <v>46400</v>
@@ -2516,13 +2480,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F74" s="18">
         <v>46400</v>
@@ -2539,13 +2503,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F75" s="18">
         <v>46400</v>
@@ -2562,13 +2526,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F76" s="18">
         <v>46400</v>
@@ -2585,13 +2549,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F77" s="18">
         <v>46400</v>
@@ -2608,19 +2572,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F78" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G78" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2631,19 +2595,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F79" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G79" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2654,19 +2618,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F80" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G80" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2677,19 +2641,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F81" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G81" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2700,19 +2664,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F82" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G82" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2723,19 +2687,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F83" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G83" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2746,19 +2710,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F84" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G84" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2769,19 +2733,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F85" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G85" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2792,19 +2756,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F86" s="18">
-        <v>1898</v>
+        <v>46400</v>
       </c>
       <c r="G86" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2815,19 +2779,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F87" s="18">
-        <v>1898</v>
+        <v>46400</v>
       </c>
       <c r="G87" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2838,19 +2802,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F88" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G88" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2861,19 +2825,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F89" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G89" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2884,19 +2848,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F90" s="18">
-        <v>33125</v>
+        <v>46400</v>
       </c>
       <c r="G90" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2907,19 +2871,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F91" s="18">
         <v>46400</v>
       </c>
       <c r="G91" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2930,19 +2894,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F92" s="18">
         <v>46400</v>
       </c>
       <c r="G92" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2953,19 +2917,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F93" s="18">
         <v>46400</v>
       </c>
       <c r="G93" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2976,19 +2940,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F94" s="18">
         <v>46400</v>
       </c>
       <c r="G94" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2999,19 +2963,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F95" s="18">
         <v>46400</v>
       </c>
       <c r="G95" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3022,19 +2986,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F96" s="18">
         <v>46400</v>
       </c>
       <c r="G96" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3045,19 +3009,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F97" s="18">
         <v>46400</v>
       </c>
       <c r="G97" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3068,19 +3032,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F98" s="18">
         <v>46400</v>
       </c>
       <c r="G98" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3091,19 +3055,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F99" s="18">
         <v>46400</v>
       </c>
       <c r="G99" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3114,19 +3078,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F100" s="18">
         <v>46400</v>
       </c>
       <c r="G100" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3137,19 +3101,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F101" s="18">
         <v>46400</v>
       </c>
       <c r="G101" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3160,19 +3124,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F102" s="18">
         <v>46400</v>
       </c>
       <c r="G102" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3183,19 +3147,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="F103" s="18">
         <v>46400</v>
       </c>
       <c r="G103" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3206,19 +3170,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F104" s="18">
         <v>46400</v>
       </c>
       <c r="G104" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3229,19 +3193,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F105" s="18">
         <v>46400</v>
       </c>
       <c r="G105" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3252,282 +3216,75 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F106" s="18">
         <v>46400</v>
       </c>
       <c r="G106" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="16" t="s">
+      <c r="B107" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F107" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G107" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="26"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C112" s="32"/>
+      <c r="H112" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B113" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C113" s="32"/>
+      <c r="H113" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D107" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F107" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G107" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F108" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G108" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F109" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G109" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F110" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G110" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F111" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G111" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F112" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G112" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F113" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G113" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B114" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F114" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G114" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F115" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G115" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D116" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E116" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F116" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G116" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
-      <c r="J116" s="26"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C121" s="32"/>
-      <c r="H121" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C122" s="32"/>
-      <c r="H122" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="H112:J112"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003019247.xlsx
+++ b/Data/EC/NIT-9003019247.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E5A78B2-F1C3-4807-AB8F-AB4E8B525EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D964C25-5AA9-482E-B4C0-A7F86CB2B6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DCBAA1DD-C53E-4097-B75B-177DAD116E29}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8FBEF5B5-988A-4ED8-A3E8-3C69C3755090}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="71">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>DEIVY BERRIO CONTRERAS</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -311,9 +314,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -326,7 +327,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -520,29 +523,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,19 +564,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,7 +635,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD79E08D-E23D-C30F-BEFA-F24B743CF7D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C37A5A-F471-C8D2-97C7-D6E60FC8B352}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -977,8 +986,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EFE621-483A-442D-8948-44039F23A395}">
-  <dimension ref="B2:J113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4279597-CF3E-41BA-8F1B-A74B9599299A}">
+  <dimension ref="B2:J116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1000,57 +1009,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1066,7 +1075,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9003019247</v>
       </c>
@@ -1079,12 +1088,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>4168496</v>
+        <v>4307696</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1095,17 +1104,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="5">
         <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1132,13 +1141,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1151,18 +1160,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>31249</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>828116</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1174,18 +1183,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>31249</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>828116</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1197,18 +1206,18 @@
       <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>33125</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1000000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1220,18 +1229,18 @@
       <c r="D19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>33125</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1000000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1243,18 +1252,18 @@
       <c r="D20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>33125</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1000000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1266,18 +1275,18 @@
       <c r="D21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>36341</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1300000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1289,18 +1298,18 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>36341</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1300000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1312,18 +1321,18 @@
       <c r="D23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>36341</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1300000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1335,18 +1344,18 @@
       <c r="D24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1358,18 +1367,18 @@
       <c r="D25" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1381,18 +1390,18 @@
       <c r="D26" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1404,18 +1413,18 @@
       <c r="D27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1427,18 +1436,18 @@
       <c r="D28" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1450,18 +1459,18 @@
       <c r="D29" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1473,18 +1482,18 @@
       <c r="D30" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1496,18 +1505,18 @@
       <c r="D31" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1519,18 +1528,18 @@
       <c r="D32" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1542,18 +1551,18 @@
       <c r="D33" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1565,18 +1574,18 @@
       <c r="D34" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1588,18 +1597,18 @@
       <c r="D35" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1611,18 +1620,18 @@
       <c r="D36" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1634,18 +1643,18 @@
       <c r="D37" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1657,18 +1666,18 @@
       <c r="D38" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1680,18 +1689,18 @@
       <c r="D39" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1703,18 +1712,18 @@
       <c r="D40" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1726,18 +1735,18 @@
       <c r="D41" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1749,18 +1758,18 @@
       <c r="D42" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G42" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1772,18 +1781,18 @@
       <c r="D43" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1795,18 +1804,18 @@
       <c r="D44" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G44" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1818,18 +1827,18 @@
       <c r="D45" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1841,18 +1850,18 @@
       <c r="D46" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1864,18 +1873,18 @@
       <c r="D47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F47" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1887,18 +1896,18 @@
       <c r="D48" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G48" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1910,18 +1919,18 @@
       <c r="D49" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G49" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1933,18 +1942,18 @@
       <c r="D50" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F50" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G50" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -1956,18 +1965,18 @@
       <c r="D51" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G51" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -1979,18 +1988,18 @@
       <c r="D52" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F52" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G52" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2002,18 +2011,18 @@
       <c r="D53" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F53" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G53" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2025,18 +2034,18 @@
       <c r="D54" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G54" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2048,18 +2057,18 @@
       <c r="D55" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F55" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G55" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2071,18 +2080,18 @@
       <c r="D56" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G56" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2094,18 +2103,18 @@
       <c r="D57" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F57" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G57" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G57" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2117,18 +2126,18 @@
       <c r="D58" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F58" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G58" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2140,18 +2149,18 @@
       <c r="D59" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F59" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G59" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G59" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2163,18 +2172,18 @@
       <c r="D60" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G60" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G60" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2186,18 +2195,18 @@
       <c r="D61" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G61" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G61" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2209,18 +2218,18 @@
       <c r="D62" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F62" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G62" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G62" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2232,18 +2241,18 @@
       <c r="D63" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F63" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G63" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G63" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2255,18 +2264,18 @@
       <c r="D64" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F64" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G64" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G64" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2278,18 +2287,18 @@
       <c r="D65" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F65" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G65" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G65" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2301,18 +2310,18 @@
       <c r="D66" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F66" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G66" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G66" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2324,18 +2333,18 @@
       <c r="D67" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F67" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G67" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G67" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2347,18 +2356,18 @@
       <c r="D68" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F68" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G68" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2370,18 +2379,18 @@
       <c r="D69" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F69" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G69" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G69" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2393,18 +2402,18 @@
       <c r="D70" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F70" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G70" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2416,18 +2425,18 @@
       <c r="D71" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F71" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G71" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2439,18 +2448,18 @@
       <c r="D72" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F72" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G72" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="F72" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G72" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2462,18 +2471,18 @@
       <c r="D73" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F73" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G73" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="F73" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G73" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2485,18 +2494,18 @@
       <c r="D74" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F74" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G74" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G74" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2508,18 +2517,18 @@
       <c r="D75" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F75" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G75" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="F75" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G75" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2531,18 +2540,18 @@
       <c r="D76" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F76" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G76" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G76" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2554,18 +2563,18 @@
       <c r="D77" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F77" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G77" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="F77" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G77" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2577,18 +2586,18 @@
       <c r="D78" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F78" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G78" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="F78" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G78" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2600,18 +2609,18 @@
       <c r="D79" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F79" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G79" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="F79" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G79" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2623,18 +2632,18 @@
       <c r="D80" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F80" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G80" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G80" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2646,18 +2655,18 @@
       <c r="D81" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F81" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G81" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="F81" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G81" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2669,18 +2678,18 @@
       <c r="D82" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F82" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G82" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G82" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2692,18 +2701,18 @@
       <c r="D83" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F83" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G83" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="F83" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G83" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2715,18 +2724,18 @@
       <c r="D84" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F84" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G84" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="F84" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G84" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2738,18 +2747,18 @@
       <c r="D85" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F85" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G85" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="F85" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G85" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2761,18 +2770,18 @@
       <c r="D86" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F86" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G86" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="F86" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G86" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2784,18 +2793,18 @@
       <c r="D87" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F87" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G87" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="F87" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G87" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -2807,18 +2816,18 @@
       <c r="D88" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F88" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G88" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="F88" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G88" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -2830,18 +2839,18 @@
       <c r="D89" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F89" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G89" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="F89" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G89" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -2853,18 +2862,18 @@
       <c r="D90" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F90" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G90" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="F90" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G90" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -2876,18 +2885,18 @@
       <c r="D91" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F91" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G91" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="F91" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G91" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -2899,18 +2908,18 @@
       <c r="D92" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F92" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G92" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="F92" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G92" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -2922,18 +2931,18 @@
       <c r="D93" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F93" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G93" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="F93" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G93" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -2945,18 +2954,18 @@
       <c r="D94" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F94" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G94" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="F94" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G94" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -2968,18 +2977,18 @@
       <c r="D95" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F95" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G95" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="F95" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G95" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -2991,18 +3000,18 @@
       <c r="D96" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F96" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G96" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="F96" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G96" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
@@ -3014,18 +3023,18 @@
       <c r="D97" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F97" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G97" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="F97" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G97" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
@@ -3037,18 +3046,18 @@
       <c r="D98" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F98" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G98" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="F98" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G98" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
@@ -3060,18 +3069,18 @@
       <c r="D99" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F99" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G99" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="F99" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G99" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
@@ -3083,18 +3092,18 @@
       <c r="D100" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F100" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G100" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="F100" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G100" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
@@ -3106,18 +3115,18 @@
       <c r="D101" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F101" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G101" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="F101" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G101" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
@@ -3129,18 +3138,18 @@
       <c r="D102" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F102" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G102" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="F102" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G102" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
@@ -3152,18 +3161,18 @@
       <c r="D103" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F103" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G103" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="F103" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G103" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
@@ -3175,18 +3184,18 @@
       <c r="D104" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F104" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G104" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="F104" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G104" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
@@ -3198,18 +3207,18 @@
       <c r="D105" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F105" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G105" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="F105" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G105" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
@@ -3221,70 +3230,139 @@
       <c r="D106" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F106" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G106" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="F106" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G106" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="22" t="s">
+      <c r="B107" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D107" s="23" t="s">
+      <c r="D107" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E107" s="22" t="s">
+      <c r="E107" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F107" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G107" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H107" s="25"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="26"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="32" t="s">
+      <c r="F107" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G107" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F108" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G108" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F109" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G109" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E110" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F110" s="26">
+        <v>46400</v>
+      </c>
+      <c r="G110" s="26">
+        <v>1160000</v>
+      </c>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="28"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B115" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C115" s="34"/>
+      <c r="H115" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C112" s="32"/>
-      <c r="H112" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C113" s="32"/>
-      <c r="H113" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="C116" s="34"/>
+      <c r="H116" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="H115:J115"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
